--- a/src/test/resources/wishlist.xlsx
+++ b/src/test/resources/wishlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclips-Saved-Workspace\Amazon_v1 - Copy\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclips-Saved-Workspace\Amazon_EndtoEnd_v1.0\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAEB652-27C8-495F-A625-B619A30234F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A934DD47-484A-4BB7-925A-DEC26C1F5D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5376" xr2:uid="{3BAE13F0-289E-4D74-B748-71A288C238FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iphone 14 pro</t>
   </si>
@@ -54,6 +54,15 @@
       </rPr>
       <t xml:space="preserve"> WISHLIST</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nike shoes for men </t>
+  </si>
+  <si>
+    <t>earbuds</t>
+  </si>
+  <si>
+    <t>perfumes men</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,15 +154,41 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,10 +202,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213A608-7087-4AB8-855F-B7539094A26C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,10 +541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -515,10 +556,34 @@
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
